--- a/Control_de_lectura/S2M22019_Control de lectura Padre Rico Padre Pobre.xlsx
+++ b/Control_de_lectura/S2M22019_Control de lectura Padre Rico Padre Pobre.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -647,7 +648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -777,13 +780,15 @@
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="12">
+        <v>8</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="12"/>
       <c r="F15" s="19"/>
       <c r="G15" s="12">
         <f>SUM(C15:F15)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -809,13 +814,15 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="12">
+        <v>10</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="12"/>
       <c r="F17" s="19"/>
       <c r="G17" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -825,7 +832,9 @@
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12"/>
       <c r="F18" s="19"/>
@@ -841,13 +850,15 @@
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="12">
+        <v>9</v>
+      </c>
       <c r="D19" s="18"/>
       <c r="E19" s="12"/>
       <c r="F19" s="19"/>
       <c r="G19" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -857,13 +868,15 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="12">
+        <v>8</v>
+      </c>
       <c r="D20" s="18"/>
       <c r="E20" s="12"/>
       <c r="F20" s="19"/>
       <c r="G20" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -873,7 +886,9 @@
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="12"/>
       <c r="F21" s="19"/>
@@ -889,13 +904,15 @@
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="12">
+        <v>9</v>
+      </c>
       <c r="D22" s="18"/>
       <c r="E22" s="12"/>
       <c r="F22" s="19"/>
       <c r="G22" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -905,13 +922,15 @@
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="12">
+        <v>10</v>
+      </c>
       <c r="D23" s="18"/>
       <c r="E23" s="12"/>
       <c r="F23" s="19"/>
       <c r="G23" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -921,13 +940,15 @@
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="12">
+        <v>9</v>
+      </c>
       <c r="D24" s="18"/>
       <c r="E24" s="12"/>
       <c r="F24" s="19"/>
       <c r="G24" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1118,4 +1139,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>